--- a/data/trans_orig/P2A_enfcro_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEB3E48-B858-480D-B7AB-886509E6D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB7384D-2230-496D-B093-F7B8DAE66239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D41E389-F9FD-4F9B-A2C1-8DC6CD9C10E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17D8D766-DB2B-4F7E-96CC-D50B64537122}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>51,92%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>62,49%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>48,08%</t>
   </si>
   <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>37,51%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,22 +140,775 @@
     <t>46,92%</t>
   </si>
   <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>50,89%</t>
@@ -164,25 +917,22 @@
     <t>56,22%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>43,78%</t>
@@ -191,826 +941,58 @@
     <t>49,11%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
     <t>53,83%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>46,17%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>51,1%</t>
@@ -1019,55 +1001,55 @@
     <t>49,28%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>58,03%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
   </si>
   <si>
     <t>48,9%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
     <t>50,72%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,03%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -1076,19 +1058,19 @@
     <t>94,65%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>0,16%</t>
@@ -1097,88 +1079,88 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>96,75%</t>
@@ -1187,187 +1169,181 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>97,52%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>3,16%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A339B91F-25CB-4C88-AE41-68D86381C2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D043E6-811D-4C81-B193-BB38132E40CE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>580</v>
@@ -2228,13 +2204,13 @@
         <v>619366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1018</v>
@@ -2243,13 +2219,13 @@
         <v>1079347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2240,13 @@
         <v>501819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -2279,13 +2255,13 @@
         <v>349027</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>786</v>
@@ -2294,13 +2270,13 @@
         <v>850846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2368,13 +2344,13 @@
         <v>321098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>430</v>
@@ -2383,13 +2359,13 @@
         <v>418361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>741</v>
@@ -2398,13 +2374,13 @@
         <v>739459</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2395,13 @@
         <v>357411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>266</v>
@@ -2434,13 +2410,13 @@
         <v>265480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>596</v>
@@ -2449,13 +2425,13 @@
         <v>622891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2499,13 @@
         <v>428301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>615</v>
@@ -2538,13 +2514,13 @@
         <v>640577</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1073</v>
@@ -2553,13 +2529,13 @@
         <v>1068878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2550,13 @@
         <v>513921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>382</v>
@@ -2589,13 +2565,13 @@
         <v>398035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>918</v>
@@ -2604,13 +2580,13 @@
         <v>911956</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2654,13 @@
         <v>1540782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2047</v>
@@ -2693,28 +2669,28 @@
         <v>2095582</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3585</v>
       </c>
       <c r="N19" s="7">
-        <v>3636364</v>
+        <v>3636363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,16 +2702,16 @@
         <v>1676</v>
       </c>
       <c r="D20" s="7">
-        <v>1735761</v>
+        <v>1735762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1250</v>
@@ -2744,13 +2720,13 @@
         <v>1283616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2926</v>
@@ -2759,13 +2735,13 @@
         <v>3019377</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2753,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2807,7 +2783,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2821,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1874FA1B-2007-4400-B02B-8E9981CD2674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F212A-4F1B-4D13-9753-6A49657B9D81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2942,13 @@
         <v>73391</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>75</v>
@@ -2981,13 +2957,13 @@
         <v>82658</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -2996,13 +2972,13 @@
         <v>156049</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2993,13 @@
         <v>42374</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3032,13 +3008,13 @@
         <v>29247</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -3047,13 +3023,13 @@
         <v>71621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3097,13 @@
         <v>348112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>374</v>
@@ -3136,13 +3112,13 @@
         <v>396788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>698</v>
@@ -3151,13 +3127,13 @@
         <v>744899</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3148,13 @@
         <v>239592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>177</v>
@@ -3187,13 +3163,13 @@
         <v>188357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>405</v>
@@ -3202,13 +3178,13 @@
         <v>427950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3252,13 @@
         <v>549681</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>664</v>
@@ -3291,13 +3267,13 @@
         <v>729719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1169</v>
@@ -3306,13 +3282,13 @@
         <v>1279400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3303,13 @@
         <v>468266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -3342,13 +3318,13 @@
         <v>302465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>707</v>
@@ -3357,13 +3333,13 @@
         <v>770731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3431,13 +3407,13 @@
         <v>379545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>469</v>
@@ -3446,13 +3422,13 @@
         <v>522513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>809</v>
@@ -3461,13 +3437,13 @@
         <v>902058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,10 +3458,10 @@
         <v>378078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>190</v>
@@ -3574,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3884,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5412ABA3-7F94-430D-9CA5-CE854E4A218E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01425ED-A24D-4EC4-8815-68F99E578230}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,7 +4011,7 @@
         <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4044,13 +4020,13 @@
         <v>73328</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>127</v>
@@ -4059,13 +4035,13 @@
         <v>129638</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4056,13 @@
         <v>60235</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4095,13 +4071,13 @@
         <v>40032</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>101</v>
@@ -4110,13 +4086,13 @@
         <v>100268</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4160,13 @@
         <v>294571</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>339</v>
@@ -4199,13 +4175,13 @@
         <v>355049</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>625</v>
@@ -4214,13 +4190,13 @@
         <v>649620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4211,13 @@
         <v>263683</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>212</v>
@@ -4250,13 +4226,13 @@
         <v>204430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>465</v>
@@ -4265,13 +4241,13 @@
         <v>468113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4315,13 @@
         <v>513923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>616</v>
@@ -4354,13 +4330,13 @@
         <v>675256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>1101</v>
@@ -4369,13 +4345,13 @@
         <v>1189179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4366,13 @@
         <v>508508</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>361</v>
@@ -4405,13 +4381,13 @@
         <v>367657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -4420,13 +4396,13 @@
         <v>876165</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4470,13 @@
         <v>365031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>423</v>
@@ -4509,13 +4485,13 @@
         <v>464066</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>760</v>
@@ -4524,13 +4500,13 @@
         <v>829097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4521,13 @@
         <v>394521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -4560,13 +4536,13 @@
         <v>320945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -4575,13 +4551,13 @@
         <v>715466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4625,13 @@
         <v>504709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>571</v>
@@ -4664,13 +4640,13 @@
         <v>643085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>1077</v>
@@ -4679,13 +4655,13 @@
         <v>1147795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4676,13 @@
         <v>432858</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>388</v>
@@ -4715,13 +4691,13 @@
         <v>400694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>814</v>
@@ -4730,13 +4706,13 @@
         <v>833551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4780,13 @@
         <v>1734544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>2021</v>
@@ -4819,13 +4795,13 @@
         <v>2210784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>3690</v>
@@ -4834,13 +4810,13 @@
         <v>3945329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4831,13 @@
         <v>1659806</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>1317</v>
@@ -4870,13 +4846,13 @@
         <v>1333758</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>2879</v>
@@ -4885,13 +4861,13 @@
         <v>2993563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA1237A-43A1-452B-A7B5-0E3A80665231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442810DB-42A9-4A15-8B60-8F2853EEEBBA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5068,13 @@
         <v>101822</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>235</v>
@@ -5107,13 +5083,13 @@
         <v>123734</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>352</v>
@@ -5122,13 +5098,13 @@
         <v>225557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5119,13 @@
         <v>160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5158,13 +5134,13 @@
         <v>6999</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5173,13 +5149,13 @@
         <v>7158</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5223,13 @@
         <v>529781</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>980</v>
@@ -5262,13 +5238,13 @@
         <v>606128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>1572</v>
@@ -5277,13 +5253,13 @@
         <v>1135909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5274,13 @@
         <v>20042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5313,13 +5289,13 @@
         <v>13839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5328,13 +5304,13 @@
         <v>33881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5378,13 @@
         <v>1013932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>1468</v>
@@ -5417,13 +5393,13 @@
         <v>1025590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>2404</v>
@@ -5432,13 +5408,13 @@
         <v>2039522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5429,13 @@
         <v>25316</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -5468,13 +5444,13 @@
         <v>34489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -5483,13 +5459,13 @@
         <v>59805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5557,13 +5533,13 @@
         <v>699013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>1012</v>
@@ -5572,13 +5548,13 @@
         <v>846941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>1662</v>
@@ -5587,13 +5563,13 @@
         <v>1545954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5584,13 @@
         <v>29759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5623,13 +5599,13 @@
         <v>27430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -5638,13 +5614,13 @@
         <v>57188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5712,13 +5688,13 @@
         <v>930780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>1493</v>
@@ -5727,13 +5703,13 @@
         <v>1078818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>2461</v>
@@ -5742,13 +5718,13 @@
         <v>2009598</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5739,13 @@
         <v>34623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -5778,13 +5754,13 @@
         <v>71614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -5793,13 +5769,13 @@
         <v>106237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5843,13 @@
         <v>3275329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>5188</v>
@@ -5882,28 +5858,28 @@
         <v>3681210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>8451</v>
       </c>
       <c r="N19" s="7">
-        <v>6956538</v>
+        <v>6956539</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5894,13 @@
         <v>109899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -5933,13 +5909,13 @@
         <v>154371</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>292</v>
@@ -5948,13 +5924,13 @@
         <v>264270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,7 +5972,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6010,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_enfcro_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB7384D-2230-496D-B093-F7B8DAE66239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D82A41-508A-4AE3-9EAF-3E5884BDE0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17D8D766-DB2B-4F7E-96CC-D50B64537122}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{35F244CF-26C1-46D6-88A4-AB2CE2E3D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1282 +68,1105 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
   </si>
   <si>
     <t>58,53%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D043E6-811D-4C81-B193-BB38132E40CE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06128CA6-6CDC-422F-AC06-6ED4463B132C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="D4" s="7">
-        <v>59896</v>
+        <v>317706</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="I4" s="7">
-        <v>70456</v>
+        <v>410346</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>136</v>
+        <v>732</v>
       </c>
       <c r="N4" s="7">
-        <v>130352</v>
+        <v>728052</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="D5" s="7">
-        <v>55462</v>
+        <v>376306</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="I5" s="7">
-        <v>42299</v>
+        <v>278005</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>97</v>
+        <v>647</v>
       </c>
       <c r="N5" s="7">
-        <v>97761</v>
+        <v>654311</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="D7" s="7">
-        <v>271506</v>
+        <v>435634</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>342</v>
+        <v>564</v>
       </c>
       <c r="I7" s="7">
-        <v>346822</v>
+        <v>603068</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1881,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>617</v>
+        <v>979</v>
       </c>
       <c r="N7" s="7">
-        <v>618328</v>
+        <v>1038702</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="D8" s="7">
-        <v>307148</v>
+        <v>526166</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>226</v>
+        <v>344</v>
       </c>
       <c r="I8" s="7">
-        <v>228774</v>
+        <v>365325</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1932,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>529</v>
+        <v>825</v>
       </c>
       <c r="N8" s="7">
-        <v>535922</v>
+        <v>891491</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>438</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>459981</v>
+        <v>304248</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,10 +2021,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>580</v>
+        <v>423</v>
       </c>
       <c r="I10" s="7">
-        <v>619366</v>
+        <v>411585</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2213,10 +2036,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1018</v>
+        <v>717</v>
       </c>
       <c r="N10" s="7">
-        <v>1079347</v>
+        <v>715833</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2234,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>458</v>
+        <v>347</v>
       </c>
       <c r="D11" s="7">
-        <v>501819</v>
+        <v>374261</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2249,10 +2072,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="I11" s="7">
-        <v>349027</v>
+        <v>272256</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2264,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>786</v>
+        <v>620</v>
       </c>
       <c r="N11" s="7">
-        <v>850846</v>
+        <v>646517</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>311</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>321098</v>
+        <v>396214</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2353,10 +2176,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>430</v>
+        <v>592</v>
       </c>
       <c r="I13" s="7">
-        <v>418361</v>
+        <v>615771</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2368,10 +2191,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>741</v>
+        <v>1018</v>
       </c>
       <c r="N13" s="7">
-        <v>739459</v>
+        <v>1011986</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2389,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>330</v>
+        <v>568</v>
       </c>
       <c r="D14" s="7">
-        <v>357411</v>
+        <v>546008</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2404,10 +2227,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>266</v>
+        <v>405</v>
       </c>
       <c r="I14" s="7">
-        <v>265480</v>
+        <v>422841</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2419,10 +2242,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>596</v>
+        <v>973</v>
       </c>
       <c r="N14" s="7">
-        <v>622891</v>
+        <v>968848</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2310,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>458</v>
+        <v>1452</v>
       </c>
       <c r="D16" s="7">
-        <v>428301</v>
+        <v>1453801</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1994</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2040770</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>615</v>
-      </c>
-      <c r="I16" s="7">
-        <v>640577</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3446</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3494572</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1073</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1068878</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2367,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>536</v>
+        <v>1762</v>
       </c>
       <c r="D17" s="7">
-        <v>513921</v>
+        <v>1822742</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1303</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1338427</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>382</v>
-      </c>
-      <c r="I17" s="7">
-        <v>398035</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3065</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3161169</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>918</v>
-      </c>
-      <c r="N17" s="7">
-        <v>911956</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2433,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2464,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1538</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1540782</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2047</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2095582</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3585</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3636363</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1676</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1735762</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1250</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1283616</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2926</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3019377</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4F212A-4F1B-4D13-9753-6A49657B9D81}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336657CD-1B55-4C1F-8967-7C55BDE9DDFF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="D4" s="7">
-        <v>73391</v>
+        <v>415148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="I4" s="7">
-        <v>82658</v>
+        <v>472531</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>152</v>
+        <v>838</v>
       </c>
       <c r="N4" s="7">
-        <v>156049</v>
+        <v>887679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D5" s="7">
-        <v>42374</v>
+        <v>288321</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>29247</v>
+        <v>224519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>486</v>
       </c>
       <c r="N5" s="7">
-        <v>71621</v>
+        <v>512840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2758,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="D7" s="7">
-        <v>348112</v>
+        <v>531068</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>374</v>
+        <v>646</v>
       </c>
       <c r="I7" s="7">
-        <v>396788</v>
+        <v>711279</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>698</v>
+        <v>1135</v>
       </c>
       <c r="N7" s="7">
-        <v>744899</v>
+        <v>1242347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2809,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="D8" s="7">
-        <v>239592</v>
+        <v>486879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="I8" s="7">
-        <v>188357</v>
+        <v>320905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>405</v>
+        <v>741</v>
       </c>
       <c r="N8" s="7">
-        <v>427950</v>
+        <v>807784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2875,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2890,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2913,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>505</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>549681</v>
+        <v>370036</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>664</v>
+        <v>462</v>
       </c>
       <c r="I10" s="7">
-        <v>729719</v>
+        <v>515366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1169</v>
+        <v>793</v>
       </c>
       <c r="N10" s="7">
-        <v>1279400</v>
+        <v>885402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2964,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="D11" s="7">
-        <v>468266</v>
+        <v>387587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>302465</v>
+        <v>261808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>707</v>
+        <v>601</v>
       </c>
       <c r="N11" s="7">
-        <v>770731</v>
+        <v>649395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,49 +3068,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="D13" s="7">
-        <v>379545</v>
+        <v>529950</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>469</v>
+        <v>669</v>
       </c>
       <c r="I13" s="7">
-        <v>522513</v>
+        <v>704949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>809</v>
+        <v>1170</v>
       </c>
       <c r="N13" s="7">
-        <v>902058</v>
+        <v>1234900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3119,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="D14" s="7">
-        <v>378078</v>
+        <v>417789</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="I14" s="7">
-        <v>254661</v>
+        <v>346952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>585</v>
+        <v>743</v>
       </c>
       <c r="N14" s="7">
-        <v>632739</v>
+        <v>764740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3217,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>515</v>
+        <v>1716</v>
       </c>
       <c r="D16" s="7">
-        <v>543401</v>
+        <v>1846202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>678</v>
+        <v>2220</v>
       </c>
       <c r="I16" s="7">
-        <v>716377</v>
+        <v>2404125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>1193</v>
+        <v>3936</v>
       </c>
       <c r="N16" s="7">
-        <v>1259778</v>
+        <v>4250328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>395</v>
+        <v>1493</v>
       </c>
       <c r="D17" s="7">
-        <v>404338</v>
+        <v>1580577</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>325</v>
+        <v>1078</v>
       </c>
       <c r="I17" s="7">
-        <v>335524</v>
+        <v>1154184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>720</v>
+        <v>2571</v>
       </c>
       <c r="N17" s="7">
-        <v>739862</v>
+        <v>2734760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3371,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1761</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1894130</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2260</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2448055</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4021</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4342185</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1448</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1532649</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1110254</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2486</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2642903</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01425ED-A24D-4EC4-8815-68F99E578230}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DFA653-4D8C-41E1-BBAF-042C1E530A1A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="D4" s="7">
-        <v>56311</v>
+        <v>340780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="I4" s="7">
-        <v>73328</v>
+        <v>419203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>127</v>
+        <v>734</v>
       </c>
       <c r="N4" s="7">
-        <v>129638</v>
+        <v>759983</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3561,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>58</v>
+        <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>60235</v>
+        <v>334020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="I5" s="7">
-        <v>40032</v>
+        <v>253636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>101</v>
+        <v>584</v>
       </c>
       <c r="N5" s="7">
-        <v>100268</v>
+        <v>587656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3627,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>286</v>
+        <v>473</v>
       </c>
       <c r="D7" s="7">
-        <v>294571</v>
+        <v>499937</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>339</v>
+        <v>607</v>
       </c>
       <c r="I7" s="7">
-        <v>355049</v>
+        <v>666373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>625</v>
+        <v>1080</v>
       </c>
       <c r="N7" s="7">
-        <v>649620</v>
+        <v>1166311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>253</v>
+        <v>478</v>
       </c>
       <c r="D8" s="7">
-        <v>263683</v>
+        <v>522494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>212</v>
+        <v>370</v>
       </c>
       <c r="I8" s="7">
-        <v>204430</v>
+        <v>376540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>465</v>
+        <v>848</v>
       </c>
       <c r="N8" s="7">
-        <v>468113</v>
+        <v>899033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3797,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>485</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>513923</v>
+        <v>356192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
-        <v>616</v>
+        <v>416</v>
       </c>
       <c r="I10" s="7">
-        <v>675256</v>
+        <v>456732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
-        <v>1101</v>
+        <v>745</v>
       </c>
       <c r="N10" s="7">
-        <v>1189179</v>
+        <v>812924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3871,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="D11" s="7">
-        <v>508508</v>
+        <v>403360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="I11" s="7">
-        <v>367657</v>
+        <v>328279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
-        <v>827</v>
+        <v>687</v>
       </c>
       <c r="N11" s="7">
-        <v>876165</v>
+        <v>731639</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>337</v>
+        <v>492</v>
       </c>
       <c r="D13" s="7">
-        <v>365031</v>
+        <v>489938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
-        <v>423</v>
+        <v>560</v>
       </c>
       <c r="I13" s="7">
-        <v>464066</v>
+        <v>630593</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
-        <v>760</v>
+        <v>1052</v>
       </c>
       <c r="N13" s="7">
-        <v>829097</v>
+        <v>1120531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4026,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>359</v>
+        <v>440</v>
       </c>
       <c r="D14" s="7">
-        <v>394521</v>
+        <v>447629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="I14" s="7">
-        <v>320945</v>
+        <v>413186</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
-        <v>672</v>
+        <v>839</v>
       </c>
       <c r="N14" s="7">
-        <v>715466</v>
+        <v>860815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4124,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>506</v>
+        <v>1626</v>
       </c>
       <c r="D16" s="7">
-        <v>504709</v>
+        <v>1686846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
-        <v>571</v>
+        <v>1985</v>
       </c>
       <c r="I16" s="7">
-        <v>643085</v>
+        <v>2172901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
-        <v>1077</v>
+        <v>3611</v>
       </c>
       <c r="N16" s="7">
-        <v>1147795</v>
+        <v>3859748</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4181,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>426</v>
+        <v>1605</v>
       </c>
       <c r="D17" s="7">
-        <v>432858</v>
+        <v>1707504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
-        <v>388</v>
+        <v>1353</v>
       </c>
       <c r="I17" s="7">
-        <v>400694</v>
+        <v>1371641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
-        <v>814</v>
+        <v>2958</v>
       </c>
       <c r="N17" s="7">
-        <v>833551</v>
+        <v>3079144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4247,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4262,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4278,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1669</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1734544</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2021</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2210784</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3690</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3945329</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1562</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1659806</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1317</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1333758</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2879</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2993563</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442810DB-42A9-4A15-8B60-8F2853EEEBBA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B200EA8-88E2-411A-AC8E-32E650F07A91}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="D4" s="7">
-        <v>101822</v>
+        <v>245955</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
-        <v>235</v>
+        <v>595</v>
       </c>
       <c r="I4" s="7">
-        <v>123734</v>
+        <v>294869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
-        <v>352</v>
+        <v>906</v>
       </c>
       <c r="N4" s="7">
-        <v>225557</v>
+        <v>540824</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="D5" s="7">
-        <v>160</v>
+        <v>389486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>646</v>
       </c>
       <c r="I5" s="7">
-        <v>6999</v>
+        <v>430461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>1065</v>
       </c>
       <c r="N5" s="7">
-        <v>7158</v>
+        <v>819948</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4534,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4549,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4572,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>592</v>
+        <v>381</v>
       </c>
       <c r="D7" s="7">
-        <v>529781</v>
+        <v>340314</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
-        <v>980</v>
+        <v>709</v>
       </c>
       <c r="I7" s="7">
-        <v>606128</v>
+        <v>419659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
-        <v>1572</v>
+        <v>1090</v>
       </c>
       <c r="N7" s="7">
-        <v>1135909</v>
+        <v>759973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4623,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>583</v>
       </c>
       <c r="D8" s="7">
-        <v>20042</v>
+        <v>852550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>808</v>
       </c>
       <c r="I8" s="7">
-        <v>13839</v>
+        <v>538992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>1391</v>
       </c>
       <c r="N8" s="7">
-        <v>33881</v>
+        <v>1391543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4689,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4704,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4727,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>936</v>
+        <v>231</v>
       </c>
       <c r="D10" s="7">
-        <v>1013932</v>
+        <v>225601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
-        <v>1468</v>
+        <v>402</v>
       </c>
       <c r="I10" s="7">
-        <v>1025590</v>
+        <v>454826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
-        <v>2404</v>
+        <v>633</v>
       </c>
       <c r="N10" s="7">
-        <v>2039522</v>
+        <v>680426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4778,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>445</v>
       </c>
       <c r="D11" s="7">
-        <v>25316</v>
+        <v>479079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>645</v>
       </c>
       <c r="I11" s="7">
-        <v>34489</v>
+        <v>478540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>1090</v>
       </c>
       <c r="N11" s="7">
-        <v>59805</v>
+        <v>957620</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4844,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4859,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,49 +4882,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>650</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7">
-        <v>699013</v>
+        <v>292832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
-        <v>1012</v>
+        <v>643</v>
       </c>
       <c r="I13" s="7">
-        <v>846941</v>
+        <v>395440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
-        <v>1662</v>
+        <v>982</v>
       </c>
       <c r="N13" s="7">
-        <v>1545954</v>
+        <v>688271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4933,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>667</v>
       </c>
       <c r="D14" s="7">
-        <v>29759</v>
+        <v>633999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>919</v>
       </c>
       <c r="I14" s="7">
-        <v>27430</v>
+        <v>699492</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>1586</v>
       </c>
       <c r="N14" s="7">
-        <v>57188</v>
+        <v>1333492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4984,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4999,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +5014,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5031,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>968</v>
+        <v>1262</v>
       </c>
       <c r="D16" s="7">
-        <v>930780</v>
+        <v>1104702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
-        <v>1493</v>
+        <v>2349</v>
       </c>
       <c r="I16" s="7">
-        <v>1078818</v>
+        <v>1564793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
-        <v>2461</v>
+        <v>3611</v>
       </c>
       <c r="N16" s="7">
-        <v>2009598</v>
+        <v>2669494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5088,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>2114</v>
       </c>
       <c r="D17" s="7">
-        <v>34623</v>
+        <v>2355115</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
-        <v>69</v>
+        <v>3018</v>
       </c>
       <c r="I17" s="7">
-        <v>71614</v>
+        <v>2147487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
-        <v>107</v>
+        <v>5132</v>
       </c>
       <c r="N17" s="7">
-        <v>106237</v>
+        <v>4502603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5139,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5154,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5169,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5185,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3263</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3275329</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5188</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3681210</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8451</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6956539</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>113</v>
-      </c>
-      <c r="D20" s="7">
-        <v>109899</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H20" s="7">
-        <v>179</v>
-      </c>
-      <c r="I20" s="7">
-        <v>154371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M20" s="7">
-        <v>292</v>
-      </c>
-      <c r="N20" s="7">
-        <v>264270</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
